--- a/1/1/1.xlsx
+++ b/1/1/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10140" windowHeight="8794"/>
+    <workbookView windowWidth="11357" windowHeight="8434"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+  <si>
+    <t>说话人名</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>小头像文件名</t>
+  </si>
+  <si>
+    <t>配音文件名</t>
+  </si>
+  <si>
+    <t>背景文件名x</t>
+  </si>
+  <si>
+    <t>背景音乐文件名</t>
+  </si>
+  <si>
+    <t>移动方式</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>大图片1</t>
+  </si>
+  <si>
+    <t>大图片2</t>
+  </si>
+  <si>
+    <t>1·2</t>
+  </si>
   <si>
     <t>石头</t>
   </si>
@@ -47,6 +80,33 @@
   </si>
   <si>
     <t>靠靠</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>PPP</t>
@@ -987,49 +1047,240 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>2</v>
+      </c>
+      <c r="O1">
+        <v>3</v>
+      </c>
+      <c r="P1">
+        <v>4</v>
+      </c>
+      <c r="Q1">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/1/1/1.xlsx
+++ b/1/1/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>说话人名</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>PPP</t>
@@ -1050,7 +1053,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1266,7 +1269,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1275,12 +1278,12 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
